--- a/C10/streamlineLoc.xlsx
+++ b/C10/streamlineLoc.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smtgn\Desktop\S19\Thermal Fluids\GitHub\24321-A4\C10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PKBACK# 001/GitHub/24321-A4/C10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03871EED-7FD1-4A6D-A6AC-4277A481936D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3383A9B-C02D-0545-B40A-A3C303FB684F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{FF8CC975-765A-436F-B17A-3034EB7B377D}"/>
+    <workbookView xWindow="3880" yWindow="2060" windowWidth="19400" windowHeight="10400" xr2:uid="{FF8CC975-765A-436F-B17A-3034EB7B377D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -397,15 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26F20F3-5AA0-4E2D-9C51-2D5589038159}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>375</v>
       </c>
@@ -451,7 +451,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>450</v>
       </c>
@@ -474,7 +474,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>540</v>
       </c>
@@ -497,7 +497,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>613</v>
       </c>
@@ -520,7 +520,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>687</v>
       </c>
@@ -543,7 +543,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>750</v>
       </c>
@@ -566,7 +566,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>817</v>
       </c>
@@ -589,7 +589,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>875</v>
       </c>
@@ -612,7 +612,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>929</v>
       </c>
@@ -635,7 +635,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1638</v>
       </c>
@@ -658,7 +658,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1690</v>
       </c>
@@ -681,7 +681,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1762</v>
       </c>
@@ -704,7 +704,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1817</v>
       </c>
@@ -727,7 +727,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1893</v>
       </c>
@@ -750,7 +750,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1957</v>
       </c>
@@ -773,7 +773,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2047</v>
       </c>
@@ -796,7 +796,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2204</v>
       </c>
@@ -819,7 +819,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2257</v>
       </c>
@@ -842,21 +842,8 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20">
-        <v>2223</v>
-      </c>
-      <c r="C20">
-        <v>1258</v>
-      </c>
-      <c r="F20">
-        <v>1823</v>
-      </c>
-      <c r="G20">
-        <v>1707</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/C10/streamlineLoc.xlsx
+++ b/C10/streamlineLoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PKBACK# 001/GitHub/24321-A4/C10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3383A9B-C02D-0545-B40A-A3C303FB684F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DDB31B-BA6D-114C-910E-CB9FAA3B8D4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3880" yWindow="2060" windowWidth="19400" windowHeight="10400" xr2:uid="{FF8CC975-765A-436F-B17A-3034EB7B377D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Cylinder</t>
   </si>
@@ -47,15 +47,28 @@
   <si>
     <t>A7</t>
   </si>
+  <si>
+    <t>S11i</t>
+  </si>
+  <si>
+    <t>S11o</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,8 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26F20F3-5AA0-4E2D-9C51-2D5589038159}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +441,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>375</v>
       </c>
@@ -450,8 +470,14 @@
       <c r="G2">
         <v>174</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>1061</v>
+      </c>
+      <c r="I2">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>450</v>
       </c>
@@ -473,8 +499,14 @@
       <c r="G3">
         <v>226</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1094</v>
+      </c>
+      <c r="I3">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>540</v>
       </c>
@@ -496,8 +528,14 @@
       <c r="G4">
         <v>263</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>1108</v>
+      </c>
+      <c r="I4">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>613</v>
       </c>
@@ -519,8 +557,14 @@
       <c r="G5">
         <v>304</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1122</v>
+      </c>
+      <c r="I5">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>687</v>
       </c>
@@ -542,8 +586,14 @@
       <c r="G6">
         <v>340</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1137</v>
+      </c>
+      <c r="I6">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>750</v>
       </c>
@@ -565,8 +615,14 @@
       <c r="G7">
         <v>369</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>1147</v>
+      </c>
+      <c r="I7">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>817</v>
       </c>
@@ -588,8 +644,14 @@
       <c r="G8">
         <v>404</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>1162</v>
+      </c>
+      <c r="I8">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>875</v>
       </c>
@@ -611,8 +673,14 @@
       <c r="G9">
         <v>456</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>1174</v>
+      </c>
+      <c r="I9">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>929</v>
       </c>
@@ -634,8 +702,14 @@
       <c r="G10">
         <v>490</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>1185</v>
+      </c>
+      <c r="I10">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1638</v>
       </c>
@@ -657,8 +731,14 @@
       <c r="G11">
         <v>552</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>1200</v>
+      </c>
+      <c r="I11">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1690</v>
       </c>
@@ -680,8 +760,14 @@
       <c r="G12">
         <v>1084</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>1212</v>
+      </c>
+      <c r="I12">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1762</v>
       </c>
@@ -703,8 +789,14 @@
       <c r="G13">
         <v>1148</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>1225</v>
+      </c>
+      <c r="I13">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1817</v>
       </c>
@@ -726,8 +818,14 @@
       <c r="G14">
         <v>1255</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>1238</v>
+      </c>
+      <c r="I14">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1893</v>
       </c>
@@ -749,8 +847,14 @@
       <c r="G15">
         <v>1318</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>1249</v>
+      </c>
+      <c r="I15">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1957</v>
       </c>
@@ -772,8 +876,14 @@
       <c r="G16">
         <v>1388</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>1260</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2047</v>
       </c>
@@ -795,8 +905,14 @@
       <c r="G17">
         <v>1434</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>1276</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2204</v>
       </c>
@@ -818,8 +934,14 @@
       <c r="G18">
         <v>1560</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>1288</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2257</v>
       </c>
@@ -841,6 +963,15 @@
       <c r="G19">
         <v>1653</v>
       </c>
+      <c r="H19">
+        <v>1302</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1048576" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I1048576" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
